--- a/group_assign_df_결시생처리후.xlsx
+++ b/group_assign_df_결시생처리후.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>종합점수</t>
+          <t>합계</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -790,10 +790,10 @@
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
-        <v>210.1</v>
+        <v>185</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="n">
-        <v>206.3</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1094,10 +1094,10 @@
         <v>2</v>
       </c>
       <c r="AN4" t="n">
-        <v>162.8</v>
+        <v>171</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1247,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="AN5" t="n">
-        <v>181.8</v>
+        <v>171</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1398,10 +1398,10 @@
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="n">
-        <v>242.1</v>
+        <v>209</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1553,10 +1553,10 @@
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="n">
-        <v>203.8</v>
+        <v>194</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1704,10 +1704,10 @@
       </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1859,10 +1859,10 @@
       </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="n">
-        <v>139.2</v>
+        <v>155</v>
       </c>
       <c r="AO9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2014,10 +2014,10 @@
       </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="n">
-        <v>194.8</v>
+        <v>179</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2169,10 +2169,10 @@
       </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="n">
-        <v>193.8</v>
+        <v>171</v>
       </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2320,10 +2320,10 @@
       </c>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="n">
-        <v>95.2</v>
+        <v>122</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2475,10 +2475,10 @@
       </c>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="n">
-        <v>226.9</v>
+        <v>212</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2626,10 +2626,10 @@
       </c>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="n">
-        <v>219.3</v>
+        <v>200</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="n">
-        <v>146.2</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="n">
         <v>1</v>
@@ -2928,10 +2928,10 @@
       </c>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="n">
-        <v>107.7</v>
+        <v>138</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3079,10 +3079,10 @@
       </c>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="n">
-        <v>216.3</v>
+        <v>183</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3230,10 +3230,10 @@
       </c>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="n">
-        <v>193.8</v>
+        <v>179</v>
       </c>
       <c r="AO18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -3381,10 +3381,10 @@
       </c>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="n">
-        <v>178.4</v>
+        <v>158</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="n">
-        <v>104.2</v>
+        <v>125</v>
       </c>
       <c r="AO20" t="n">
         <v>7</v>
@@ -3683,10 +3683,10 @@
       </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="n">
-        <v>191.8</v>
+        <v>171</v>
       </c>
       <c r="AO21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -3834,10 +3834,10 @@
       </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
-        <v>166.8</v>
+        <v>169</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3985,10 +3985,10 @@
       </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="n">
-        <v>199.1</v>
+        <v>166</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4136,10 +4136,10 @@
       </c>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="n">
-        <v>94.2</v>
+        <v>114</v>
       </c>
       <c r="AO24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="n">
-        <v>215.6</v>
+        <v>195</v>
       </c>
       <c r="AO25" t="n">
         <v>7</v>
@@ -4442,10 +4442,10 @@
       </c>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="n">
-        <v>201.3</v>
+        <v>179</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -4593,10 +4593,10 @@
       </c>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="n">
-        <v>201.8</v>
+        <v>179</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -4744,10 +4744,10 @@
       </c>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="n">
-        <v>187.8</v>
+        <v>173</v>
       </c>
       <c r="AO28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -4895,10 +4895,10 @@
       </c>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="n">
-        <v>130.2</v>
+        <v>135</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -5046,10 +5046,10 @@
       </c>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="n">
-        <v>187.4</v>
+        <v>163</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -5197,10 +5197,10 @@
       </c>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="n">
-        <v>169.8</v>
+        <v>163</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -5348,10 +5348,10 @@
       </c>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="n">
-        <v>200.8</v>
+        <v>184</v>
       </c>
       <c r="AO32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -5499,10 +5499,10 @@
       </c>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="n">
-        <v>201.4</v>
+        <v>177</v>
       </c>
       <c r="AO33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="n">
-        <v>214.4</v>
+        <v>196</v>
       </c>
       <c r="AO34" t="n">
         <v>1</v>
@@ -5805,10 +5805,10 @@
       </c>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="n">
-        <v>194.3</v>
+        <v>189</v>
       </c>
       <c r="AO35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="n">
-        <v>225.1</v>
+        <v>206</v>
       </c>
       <c r="AO36" t="n">
         <v>0</v>
@@ -6111,10 +6111,10 @@
       </c>
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="n">
-        <v>204.4</v>
+        <v>177</v>
       </c>
       <c r="AO37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -6262,10 +6262,10 @@
       </c>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="n">
-        <v>224.9</v>
+        <v>203</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -6413,10 +6413,10 @@
       </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
-        <v>158.2</v>
+        <v>171</v>
       </c>
       <c r="AO39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -6564,10 +6564,10 @@
       </c>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="n">
-        <v>137.2</v>
+        <v>144</v>
       </c>
       <c r="AO40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -6715,10 +6715,10 @@
       </c>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="n">
-        <v>201.6</v>
+        <v>178</v>
       </c>
       <c r="AO41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -6866,10 +6866,10 @@
       </c>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="n">
-        <v>169.8</v>
+        <v>155</v>
       </c>
       <c r="AO42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -7017,10 +7017,10 @@
       </c>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="n">
-        <v>137.2</v>
+        <v>148</v>
       </c>
       <c r="AO43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -7168,10 +7168,10 @@
       </c>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="n">
-        <v>211.1</v>
+        <v>183</v>
       </c>
       <c r="AO44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -7319,10 +7319,10 @@
       </c>
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="n">
-        <v>203.8</v>
+        <v>194</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -7470,10 +7470,10 @@
       </c>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="n">
-        <v>137.2</v>
+        <v>133</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="n">
-        <v>203.8</v>
+        <v>190</v>
       </c>
       <c r="AO47" t="n">
         <v>8</v>
@@ -7772,10 +7772,10 @@
       </c>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="n">
-        <v>134.2</v>
+        <v>164</v>
       </c>
       <c r="AO48" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -7923,10 +7923,10 @@
       </c>
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="n">
-        <v>215.1</v>
+        <v>185</v>
       </c>
       <c r="AO49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -8074,10 +8074,10 @@
       </c>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="n">
-        <v>169.8</v>
+        <v>154</v>
       </c>
       <c r="AO50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -8225,10 +8225,10 @@
       </c>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="n">
-        <v>187.8</v>
+        <v>171</v>
       </c>
       <c r="AO51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="n">
-        <v>166.8</v>
+        <v>157</v>
       </c>
       <c r="AO52" t="n">
         <v>4</v>
@@ -8531,10 +8531,10 @@
       </c>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="n">
-        <v>178.4</v>
+        <v>172</v>
       </c>
       <c r="AO53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -8684,7 +8684,7 @@
         <v>53</v>
       </c>
       <c r="AN54" t="n">
-        <v>222.6</v>
+        <v>211</v>
       </c>
       <c r="AO54" t="n">
         <v>5</v>
@@ -8835,10 +8835,10 @@
       </c>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="n">
-        <v>184.4</v>
+        <v>169</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -8986,10 +8986,10 @@
       </c>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="n">
-        <v>147.2</v>
+        <v>161</v>
       </c>
       <c r="AO56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -9137,10 +9137,10 @@
       </c>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="n">
-        <v>204.4</v>
+        <v>185</v>
       </c>
       <c r="AO57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -9292,10 +9292,10 @@
       </c>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="n">
-        <v>180.8</v>
+        <v>158</v>
       </c>
       <c r="AO58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -9443,10 +9443,10 @@
       </c>
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="n">
-        <v>191.4</v>
+        <v>171</v>
       </c>
       <c r="AO59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -9594,10 +9594,10 @@
       </c>
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="n">
-        <v>225.6</v>
+        <v>195</v>
       </c>
       <c r="AO60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -9745,10 +9745,10 @@
       </c>
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="n">
-        <v>191.4</v>
+        <v>162</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -9896,10 +9896,10 @@
       </c>
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="n">
-        <v>167.8</v>
+        <v>152</v>
       </c>
       <c r="AO62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -10047,10 +10047,10 @@
       </c>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="n">
-        <v>197.9</v>
+        <v>170</v>
       </c>
       <c r="AO63" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -10198,10 +10198,10 @@
       </c>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="n">
-        <v>236.1</v>
+        <v>200</v>
       </c>
       <c r="AO64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -10353,10 +10353,10 @@
       </c>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="n">
-        <v>231.4</v>
+        <v>190</v>
       </c>
       <c r="AO65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -10504,10 +10504,10 @@
       </c>
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="n">
-        <v>223.1</v>
+        <v>203</v>
       </c>
       <c r="AO66" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -10655,10 +10655,10 @@
       </c>
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="n">
-        <v>222.3</v>
+        <v>183</v>
       </c>
       <c r="AO67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10806,10 +10806,10 @@
       </c>
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="n">
-        <v>225.4</v>
+        <v>192</v>
       </c>
       <c r="AO68" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -10957,10 +10957,10 @@
       </c>
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="n">
-        <v>238.9</v>
+        <v>207</v>
       </c>
       <c r="AO69" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11108,10 +11108,10 @@
       </c>
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="n">
-        <v>181.4</v>
+        <v>170</v>
       </c>
       <c r="AO70" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11259,10 +11259,10 @@
       </c>
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="n">
-        <v>87.2</v>
+        <v>118</v>
       </c>
       <c r="AO71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -11410,10 +11410,10 @@
       </c>
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="n">
-        <v>121.2</v>
+        <v>159</v>
       </c>
       <c r="AO72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -11561,10 +11561,10 @@
       </c>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="n">
-        <v>119.2</v>
+        <v>138</v>
       </c>
       <c r="AO73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -11712,10 +11712,10 @@
       </c>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="n">
-        <v>94.2</v>
+        <v>122</v>
       </c>
       <c r="AO74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -11863,10 +11863,10 @@
       </c>
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="n">
-        <v>192.3</v>
+        <v>166</v>
       </c>
       <c r="AO75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -12014,10 +12014,10 @@
       </c>
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="n">
-        <v>113.2</v>
+        <v>141</v>
       </c>
       <c r="AO76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -12165,10 +12165,10 @@
       </c>
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="n">
-        <v>192.8</v>
+        <v>178</v>
       </c>
       <c r="AO77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="n">
-        <v>269.6</v>
+        <v>239</v>
       </c>
       <c r="AO78" t="n">
         <v>4</v>
@@ -12467,10 +12467,10 @@
       </c>
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="n">
-        <v>105.2</v>
+        <v>120</v>
       </c>
       <c r="AO79" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -12618,10 +12618,10 @@
       </c>
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="n">
-        <v>141.2</v>
+        <v>150</v>
       </c>
       <c r="AO80" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -12769,10 +12769,10 @@
       </c>
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="n">
-        <v>178.4</v>
+        <v>162</v>
       </c>
       <c r="AO81" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -12920,10 +12920,10 @@
       </c>
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="n">
-        <v>127.2</v>
+        <v>142</v>
       </c>
       <c r="AO82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -13071,10 +13071,10 @@
       </c>
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="AO83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -13222,10 +13222,10 @@
       </c>
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="n">
-        <v>208.4</v>
+        <v>179</v>
       </c>
       <c r="AO84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -13373,10 +13373,10 @@
       </c>
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="n">
-        <v>132.2</v>
+        <v>148</v>
       </c>
       <c r="AO85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -13524,10 +13524,10 @@
       </c>
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="n">
-        <v>218.6</v>
+        <v>197</v>
       </c>
       <c r="AO86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="n">
-        <v>206.3</v>
+        <v>164</v>
       </c>
       <c r="AO87" t="n">
         <v>2</v>
@@ -13826,10 +13826,10 @@
       </c>
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="n">
-        <v>202.1</v>
+        <v>183</v>
       </c>
       <c r="AO88" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -13977,10 +13977,10 @@
       </c>
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="n">
-        <v>216.9</v>
+        <v>195</v>
       </c>
       <c r="AO89" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -14128,10 +14128,10 @@
       </c>
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="n">
-        <v>195.3</v>
+        <v>162</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -14279,10 +14279,10 @@
       </c>
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="AO91" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -14430,10 +14430,10 @@
       </c>
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="n">
-        <v>197.8</v>
+        <v>173</v>
       </c>
       <c r="AO92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -14585,10 +14585,10 @@
       </c>
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="n">
-        <v>204.3</v>
+        <v>188</v>
       </c>
       <c r="AO93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -14736,10 +14736,10 @@
       </c>
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="n">
-        <v>166.8</v>
+        <v>162</v>
       </c>
       <c r="AO94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -14887,10 +14887,10 @@
       </c>
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="n">
-        <v>227.1</v>
+        <v>201</v>
       </c>
       <c r="AO95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -15038,10 +15038,10 @@
       </c>
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="n">
-        <v>217.4</v>
+        <v>198</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -15189,10 +15189,10 @@
       </c>
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="n">
-        <v>198.1</v>
+        <v>175</v>
       </c>
       <c r="AO97" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -15340,10 +15340,10 @@
       </c>
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="n">
-        <v>174.4</v>
+        <v>152</v>
       </c>
       <c r="AO98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -15493,10 +15493,10 @@
         <v>98</v>
       </c>
       <c r="AN99" t="n">
-        <v>195.4</v>
+        <v>185</v>
       </c>
       <c r="AO99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -15644,10 +15644,10 @@
       </c>
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="n">
-        <v>193.8</v>
+        <v>161</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -15795,10 +15795,10 @@
       </c>
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="n">
-        <v>119.2</v>
+        <v>134</v>
       </c>
       <c r="AO101" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -15946,10 +15946,10 @@
       </c>
       <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="n">
-        <v>215.3</v>
+        <v>189</v>
       </c>
       <c r="AO102" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="AM103" t="inlineStr"/>
       <c r="AN103" t="n">
-        <v>183.8</v>
+        <v>177</v>
       </c>
       <c r="AO103" t="n">
         <v>9</v>
@@ -16250,10 +16250,10 @@
         <v>103</v>
       </c>
       <c r="AN104" t="n">
-        <v>219.1</v>
+        <v>200</v>
       </c>
       <c r="AO104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -16401,10 +16401,10 @@
       </c>
       <c r="AM105" t="inlineStr"/>
       <c r="AN105" t="n">
-        <v>173.8</v>
+        <v>165</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -16552,10 +16552,10 @@
       </c>
       <c r="AM106" t="inlineStr"/>
       <c r="AN106" t="n">
-        <v>133.2</v>
+        <v>146</v>
       </c>
       <c r="AO106" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -16707,10 +16707,10 @@
       </c>
       <c r="AM107" t="inlineStr"/>
       <c r="AN107" t="n">
-        <v>218.4</v>
+        <v>183</v>
       </c>
       <c r="AO107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -16858,10 +16858,10 @@
       </c>
       <c r="AM108" t="inlineStr"/>
       <c r="AN108" t="n">
-        <v>173.8</v>
+        <v>159</v>
       </c>
       <c r="AO108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -17009,10 +17009,10 @@
       </c>
       <c r="AM109" t="inlineStr"/>
       <c r="AN109" t="n">
-        <v>202.1</v>
+        <v>193</v>
       </c>
       <c r="AO109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -17164,10 +17164,10 @@
       </c>
       <c r="AM110" t="inlineStr"/>
       <c r="AN110" t="n">
-        <v>205.3</v>
+        <v>179</v>
       </c>
       <c r="AO110" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -17319,10 +17319,10 @@
       </c>
       <c r="AM111" t="inlineStr"/>
       <c r="AN111" t="n">
-        <v>193.8</v>
+        <v>165</v>
       </c>
       <c r="AO111" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="AM112" t="inlineStr"/>
       <c r="AN112" t="n">
-        <v>187.8</v>
+        <v>177</v>
       </c>
       <c r="AO112" t="n">
         <v>1</v>
@@ -17621,10 +17621,10 @@
       </c>
       <c r="AM113" t="inlineStr"/>
       <c r="AN113" t="n">
-        <v>191.4</v>
+        <v>175</v>
       </c>
       <c r="AO113" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -17772,10 +17772,10 @@
       </c>
       <c r="AM114" t="inlineStr"/>
       <c r="AN114" t="n">
-        <v>153.8</v>
+        <v>158</v>
       </c>
       <c r="AO114" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -17923,10 +17923,10 @@
       </c>
       <c r="AM115" t="inlineStr"/>
       <c r="AN115" t="n">
-        <v>212.4</v>
+        <v>173</v>
       </c>
       <c r="AO115" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -18078,10 +18078,10 @@
       </c>
       <c r="AM116" t="inlineStr"/>
       <c r="AN116" t="n">
-        <v>226.4</v>
+        <v>195</v>
       </c>
       <c r="AO116" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -18233,10 +18233,10 @@
       </c>
       <c r="AM117" t="inlineStr"/>
       <c r="AN117" t="n">
-        <v>220.1</v>
+        <v>193</v>
       </c>
       <c r="AO117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -18384,10 +18384,10 @@
       </c>
       <c r="AM118" t="inlineStr"/>
       <c r="AN118" t="n">
-        <v>211.4</v>
+        <v>198</v>
       </c>
       <c r="AO118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="AM119" t="inlineStr"/>
       <c r="AN119" t="n">
-        <v>150.8</v>
+        <v>152</v>
       </c>
       <c r="AO119" t="n">
         <v>3</v>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="AM120" t="inlineStr"/>
       <c r="AN120" t="n">
-        <v>199.9</v>
+        <v>175</v>
       </c>
       <c r="AO120" t="n">
         <v>8</v>
@@ -18843,10 +18843,10 @@
         <v>3</v>
       </c>
       <c r="AN121" t="n">
-        <v>209.3</v>
+        <v>189</v>
       </c>
       <c r="AO121" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -18994,10 +18994,10 @@
       </c>
       <c r="AM122" t="inlineStr"/>
       <c r="AN122" t="n">
-        <v>179.8</v>
+        <v>171</v>
       </c>
       <c r="AO122" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -19147,10 +19147,10 @@
         <v>124</v>
       </c>
       <c r="AN123" t="n">
-        <v>170.8</v>
+        <v>163</v>
       </c>
       <c r="AO123" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="AM124" t="inlineStr"/>
       <c r="AN124" t="n">
-        <v>177.8</v>
+        <v>177</v>
       </c>
       <c r="AO124" t="n">
         <v>2</v>
@@ -19449,10 +19449,10 @@
       </c>
       <c r="AM125" t="inlineStr"/>
       <c r="AN125" t="n">
-        <v>224.3</v>
+        <v>198</v>
       </c>
       <c r="AO125" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -19600,10 +19600,10 @@
       </c>
       <c r="AM126" t="inlineStr"/>
       <c r="AN126" t="n">
-        <v>190.8</v>
+        <v>183</v>
       </c>
       <c r="AO126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -19751,10 +19751,10 @@
       </c>
       <c r="AM127" t="inlineStr"/>
       <c r="AN127" t="n">
-        <v>170.8</v>
+        <v>154</v>
       </c>
       <c r="AO127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -19906,10 +19906,10 @@
       </c>
       <c r="AM128" t="inlineStr"/>
       <c r="AN128" t="n">
-        <v>218.4</v>
+        <v>196</v>
       </c>
       <c r="AO128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="AM129" t="inlineStr"/>
       <c r="AN129" t="n">
-        <v>157.8</v>
+        <v>148</v>
       </c>
       <c r="AO129" t="n">
         <v>1</v>
@@ -20208,10 +20208,10 @@
       </c>
       <c r="AM130" t="inlineStr"/>
       <c r="AN130" t="n">
-        <v>177.4</v>
+        <v>168</v>
       </c>
       <c r="AO130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -20359,10 +20359,10 @@
       </c>
       <c r="AM131" t="inlineStr"/>
       <c r="AN131" t="n">
-        <v>185.4</v>
+        <v>153</v>
       </c>
       <c r="AO131" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -20510,10 +20510,10 @@
       </c>
       <c r="AM132" t="inlineStr"/>
       <c r="AN132" t="n">
-        <v>181.8</v>
+        <v>152</v>
       </c>
       <c r="AO132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -20661,10 +20661,10 @@
       </c>
       <c r="AM133" t="inlineStr"/>
       <c r="AN133" t="n">
-        <v>205.3</v>
+        <v>173</v>
       </c>
       <c r="AO133" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -20812,10 +20812,10 @@
       </c>
       <c r="AM134" t="inlineStr"/>
       <c r="AN134" t="n">
-        <v>204.8</v>
+        <v>192</v>
       </c>
       <c r="AO134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -20963,10 +20963,10 @@
       </c>
       <c r="AM135" t="inlineStr"/>
       <c r="AN135" t="n">
-        <v>209.9</v>
+        <v>192</v>
       </c>
       <c r="AO135" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="AM136" t="inlineStr"/>
       <c r="AN136" t="n">
-        <v>209.9</v>
+        <v>179</v>
       </c>
       <c r="AO136" t="n">
         <v>1</v>
@@ -21265,10 +21265,10 @@
       </c>
       <c r="AM137" t="inlineStr"/>
       <c r="AN137" t="n">
-        <v>187.4</v>
+        <v>171</v>
       </c>
       <c r="AO137" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -21416,10 +21416,10 @@
       </c>
       <c r="AM138" t="inlineStr"/>
       <c r="AN138" t="n">
-        <v>119.2</v>
+        <v>142</v>
       </c>
       <c r="AO138" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -21567,10 +21567,10 @@
       </c>
       <c r="AM139" t="inlineStr"/>
       <c r="AN139" t="n">
-        <v>219.3</v>
+        <v>183</v>
       </c>
       <c r="AO139" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="AM140" t="inlineStr"/>
       <c r="AN140" t="n">
-        <v>79.7</v>
+        <v>109</v>
       </c>
       <c r="AO140" t="n">
         <v>0</v>
@@ -21869,10 +21869,10 @@
       </c>
       <c r="AM141" t="inlineStr"/>
       <c r="AN141" t="n">
-        <v>204.4</v>
+        <v>185</v>
       </c>
       <c r="AO141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -22020,10 +22020,10 @@
       </c>
       <c r="AM142" t="inlineStr"/>
       <c r="AN142" t="n">
-        <v>176.8</v>
+        <v>163</v>
       </c>
       <c r="AO142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -22171,10 +22171,10 @@
       </c>
       <c r="AM143" t="inlineStr"/>
       <c r="AN143" t="n">
-        <v>178.3</v>
+        <v>153</v>
       </c>
       <c r="AO143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
@@ -22322,10 +22322,10 @@
       </c>
       <c r="AM144" t="inlineStr"/>
       <c r="AN144" t="n">
-        <v>200.9</v>
+        <v>170</v>
       </c>
       <c r="AO144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -22479,10 +22479,10 @@
       </c>
       <c r="AM145" t="inlineStr"/>
       <c r="AN145" t="n">
-        <v>235.1</v>
+        <v>208</v>
       </c>
       <c r="AO145" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -22630,10 +22630,10 @@
       </c>
       <c r="AM146" t="inlineStr"/>
       <c r="AN146" t="n">
-        <v>173.8</v>
+        <v>173</v>
       </c>
       <c r="AO146" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -22783,10 +22783,10 @@
         <v>103</v>
       </c>
       <c r="AN147" t="n">
-        <v>126.2</v>
+        <v>131</v>
       </c>
       <c r="AO147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -22934,10 +22934,10 @@
       </c>
       <c r="AM148" t="inlineStr"/>
       <c r="AN148" t="n">
-        <v>188.8</v>
+        <v>173</v>
       </c>
       <c r="AO148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -23089,10 +23089,10 @@
       </c>
       <c r="AM149" t="inlineStr"/>
       <c r="AN149" t="n">
-        <v>190.8</v>
+        <v>165</v>
       </c>
       <c r="AO149" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
@@ -23240,10 +23240,10 @@
       </c>
       <c r="AM150" t="inlineStr"/>
       <c r="AN150" t="n">
-        <v>130.2</v>
+        <v>151</v>
       </c>
       <c r="AO150" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -23391,10 +23391,10 @@
       </c>
       <c r="AM151" t="inlineStr"/>
       <c r="AN151" t="n">
-        <v>193.8</v>
+        <v>184</v>
       </c>
       <c r="AO151" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -23542,10 +23542,10 @@
       </c>
       <c r="AM152" t="inlineStr"/>
       <c r="AN152" t="n">
-        <v>175.8</v>
+        <v>161</v>
       </c>
       <c r="AO152" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -23693,10 +23693,10 @@
       </c>
       <c r="AM153" t="inlineStr"/>
       <c r="AN153" t="n">
-        <v>228.6</v>
+        <v>199</v>
       </c>
       <c r="AO153" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
@@ -23846,10 +23846,10 @@
         <v>98</v>
       </c>
       <c r="AN154" t="n">
-        <v>233.1</v>
+        <v>203</v>
       </c>
       <c r="AO154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
@@ -23997,7 +23997,7 @@
       </c>
       <c r="AM155" t="inlineStr"/>
       <c r="AN155" t="n">
-        <v>246.1</v>
+        <v>219</v>
       </c>
       <c r="AO155" t="n">
         <v>1</v>
@@ -24148,10 +24148,10 @@
       </c>
       <c r="AM156" t="inlineStr"/>
       <c r="AN156" t="n">
-        <v>183.8</v>
+        <v>161</v>
       </c>
       <c r="AO156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -24299,10 +24299,10 @@
       </c>
       <c r="AM157" t="inlineStr"/>
       <c r="AN157" t="n">
-        <v>222.4</v>
+        <v>191</v>
       </c>
       <c r="AO157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -24455,10 +24455,10 @@
       </c>
       <c r="AM158" t="inlineStr"/>
       <c r="AN158" t="n">
-        <v>94.7</v>
+        <v>132</v>
       </c>
       <c r="AO158" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -24606,10 +24606,10 @@
       </c>
       <c r="AM159" t="inlineStr"/>
       <c r="AN159" t="n">
-        <v>202.4</v>
+        <v>191</v>
       </c>
       <c r="AO159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -24761,10 +24761,10 @@
       </c>
       <c r="AM160" t="inlineStr"/>
       <c r="AN160" t="n">
-        <v>118.2</v>
+        <v>119</v>
       </c>
       <c r="AO160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -24912,10 +24912,10 @@
       </c>
       <c r="AM161" t="inlineStr"/>
       <c r="AN161" t="n">
-        <v>106.2</v>
+        <v>132</v>
       </c>
       <c r="AO161" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -25063,7 +25063,7 @@
       </c>
       <c r="AM162" t="inlineStr"/>
       <c r="AN162" t="n">
-        <v>173.8</v>
+        <v>163</v>
       </c>
       <c r="AO162" t="n">
         <v>9</v>
@@ -25214,10 +25214,10 @@
       </c>
       <c r="AM163" t="inlineStr"/>
       <c r="AN163" t="n">
-        <v>122.2</v>
+        <v>148</v>
       </c>
       <c r="AO163" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -25365,10 +25365,10 @@
       </c>
       <c r="AM164" t="inlineStr"/>
       <c r="AN164" t="n">
-        <v>195.4</v>
+        <v>173</v>
       </c>
       <c r="AO164" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
@@ -25520,10 +25520,10 @@
       </c>
       <c r="AM165" t="inlineStr"/>
       <c r="AN165" t="n">
-        <v>115.2</v>
+        <v>125</v>
       </c>
       <c r="AO165" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -25671,10 +25671,10 @@
       </c>
       <c r="AM166" t="inlineStr"/>
       <c r="AN166" t="n">
-        <v>118.2</v>
+        <v>135</v>
       </c>
       <c r="AO166" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -25822,10 +25822,10 @@
       </c>
       <c r="AM167" t="inlineStr"/>
       <c r="AN167" t="n">
-        <v>181.8</v>
+        <v>160</v>
       </c>
       <c r="AO167" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -25973,10 +25973,10 @@
       </c>
       <c r="AM168" t="inlineStr"/>
       <c r="AN168" t="n">
-        <v>214.4</v>
+        <v>192</v>
       </c>
       <c r="AO168" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -26124,10 +26124,10 @@
       </c>
       <c r="AM169" t="inlineStr"/>
       <c r="AN169" t="n">
-        <v>192.4</v>
+        <v>170</v>
       </c>
       <c r="AO169" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -26275,10 +26275,10 @@
       </c>
       <c r="AM170" t="inlineStr"/>
       <c r="AN170" t="n">
-        <v>146.2</v>
+        <v>165</v>
       </c>
       <c r="AO170" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -26426,10 +26426,10 @@
       </c>
       <c r="AM171" t="inlineStr"/>
       <c r="AN171" t="n">
-        <v>179.8</v>
+        <v>167</v>
       </c>
       <c r="AO171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -26581,10 +26581,10 @@
       </c>
       <c r="AM172" t="inlineStr"/>
       <c r="AN172" t="n">
-        <v>201.3</v>
+        <v>175</v>
       </c>
       <c r="AO172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -26734,10 +26734,10 @@
         <v>172</v>
       </c>
       <c r="AN173" t="n">
-        <v>165.8</v>
+        <v>161</v>
       </c>
       <c r="AO173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -26885,10 +26885,10 @@
       </c>
       <c r="AM174" t="inlineStr"/>
       <c r="AN174" t="n">
-        <v>201.4</v>
+        <v>177</v>
       </c>
       <c r="AO174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -27036,10 +27036,10 @@
       </c>
       <c r="AM175" t="inlineStr"/>
       <c r="AN175" t="n">
-        <v>233.6</v>
+        <v>226</v>
       </c>
       <c r="AO175" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -27187,10 +27187,10 @@
       </c>
       <c r="AM176" t="inlineStr"/>
       <c r="AN176" t="n">
-        <v>222.9</v>
+        <v>215</v>
       </c>
       <c r="AO176" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -27338,10 +27338,10 @@
       </c>
       <c r="AM177" t="inlineStr"/>
       <c r="AN177" t="n">
-        <v>207.8</v>
+        <v>179</v>
       </c>
       <c r="AO177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -27489,10 +27489,10 @@
       </c>
       <c r="AM178" t="inlineStr"/>
       <c r="AN178" t="n">
-        <v>111.2</v>
+        <v>160</v>
       </c>
       <c r="AO178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -27640,10 +27640,10 @@
       </c>
       <c r="AM179" t="inlineStr"/>
       <c r="AN179" t="n">
-        <v>130.2</v>
+        <v>135</v>
       </c>
       <c r="AO179" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -27795,10 +27795,10 @@
       </c>
       <c r="AM180" t="inlineStr"/>
       <c r="AN180" t="n">
-        <v>203.1</v>
+        <v>170</v>
       </c>
       <c r="AO180" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -27946,10 +27946,10 @@
       </c>
       <c r="AM181" t="inlineStr"/>
       <c r="AN181" t="n">
-        <v>169.8</v>
+        <v>161</v>
       </c>
       <c r="AO181" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -28097,10 +28097,10 @@
       </c>
       <c r="AM182" t="inlineStr"/>
       <c r="AN182" t="n">
-        <v>208.3</v>
+        <v>187</v>
       </c>
       <c r="AO182" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -28248,10 +28248,10 @@
       </c>
       <c r="AM183" t="inlineStr"/>
       <c r="AN183" t="n">
-        <v>178.8</v>
+        <v>164</v>
       </c>
       <c r="AO183" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -28399,7 +28399,7 @@
       </c>
       <c r="AM184" t="inlineStr"/>
       <c r="AN184" t="n">
-        <v>194.4</v>
+        <v>179</v>
       </c>
       <c r="AO184" t="n">
         <v>7</v>
@@ -28555,10 +28555,10 @@
       </c>
       <c r="AM185" t="inlineStr"/>
       <c r="AN185" t="n">
-        <v>213.3</v>
+        <v>181</v>
       </c>
       <c r="AO185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -28706,10 +28706,10 @@
       </c>
       <c r="AM186" t="inlineStr"/>
       <c r="AN186" t="n">
-        <v>183.8</v>
+        <v>157</v>
       </c>
       <c r="AO186" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -28857,10 +28857,10 @@
       </c>
       <c r="AM187" t="inlineStr"/>
       <c r="AN187" t="n">
-        <v>250.1</v>
+        <v>219</v>
       </c>
       <c r="AO187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -29008,10 +29008,10 @@
       </c>
       <c r="AM188" t="inlineStr"/>
       <c r="AN188" t="n">
-        <v>212.4</v>
+        <v>175</v>
       </c>
       <c r="AO188" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -29159,10 +29159,10 @@
       </c>
       <c r="AM189" t="inlineStr"/>
       <c r="AN189" t="n">
-        <v>204.4</v>
+        <v>177</v>
       </c>
       <c r="AO189" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -29310,10 +29310,10 @@
       </c>
       <c r="AM190" t="inlineStr"/>
       <c r="AN190" t="n">
-        <v>206.1</v>
+        <v>197</v>
       </c>
       <c r="AO190" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -29461,10 +29461,10 @@
       </c>
       <c r="AM191" t="inlineStr"/>
       <c r="AN191" t="n">
-        <v>170.8</v>
+        <v>146</v>
       </c>
       <c r="AO191" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -29612,10 +29612,10 @@
       </c>
       <c r="AM192" t="inlineStr"/>
       <c r="AN192" t="n">
-        <v>160.8</v>
+        <v>141</v>
       </c>
       <c r="AO192" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -29767,10 +29767,10 @@
       </c>
       <c r="AM193" t="inlineStr"/>
       <c r="AN193" t="n">
-        <v>157.2</v>
+        <v>169</v>
       </c>
       <c r="AO193" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -29918,10 +29918,10 @@
       </c>
       <c r="AM194" t="inlineStr"/>
       <c r="AN194" t="n">
-        <v>217.4</v>
+        <v>186</v>
       </c>
       <c r="AO194" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -30074,7 +30074,7 @@
       </c>
       <c r="AM195" t="inlineStr"/>
       <c r="AN195" t="n">
-        <v>205.4</v>
+        <v>191</v>
       </c>
       <c r="AO195" t="n">
         <v>9</v>
@@ -30225,10 +30225,10 @@
       </c>
       <c r="AM196" t="inlineStr"/>
       <c r="AN196" t="n">
-        <v>202.4</v>
+        <v>179</v>
       </c>
       <c r="AO196" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
@@ -30376,10 +30376,10 @@
       </c>
       <c r="AM197" t="inlineStr"/>
       <c r="AN197" t="n">
-        <v>191.4</v>
+        <v>162</v>
       </c>
       <c r="AO197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -30527,10 +30527,10 @@
       </c>
       <c r="AM198" t="inlineStr"/>
       <c r="AN198" t="n">
-        <v>187.8</v>
+        <v>175</v>
       </c>
       <c r="AO198" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -30678,10 +30678,10 @@
       </c>
       <c r="AM199" t="inlineStr"/>
       <c r="AN199" t="n">
-        <v>201.9</v>
+        <v>213</v>
       </c>
       <c r="AO199" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -30829,10 +30829,10 @@
       </c>
       <c r="AM200" t="inlineStr"/>
       <c r="AN200" t="n">
-        <v>181.8</v>
+        <v>183</v>
       </c>
       <c r="AO200" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -30980,10 +30980,10 @@
       </c>
       <c r="AM201" t="inlineStr"/>
       <c r="AN201" t="n">
-        <v>171.8</v>
+        <v>160</v>
       </c>
       <c r="AO201" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -31131,10 +31131,10 @@
       </c>
       <c r="AM202" t="inlineStr"/>
       <c r="AN202" t="n">
-        <v>178.8</v>
+        <v>154</v>
       </c>
       <c r="AO202" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -31282,10 +31282,10 @@
       </c>
       <c r="AM203" t="inlineStr"/>
       <c r="AN203" t="n">
-        <v>130.2</v>
+        <v>131</v>
       </c>
       <c r="AO203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -31433,10 +31433,10 @@
       </c>
       <c r="AM204" t="inlineStr"/>
       <c r="AN204" t="n">
-        <v>158.8</v>
+        <v>153</v>
       </c>
       <c r="AO204" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -31584,10 +31584,10 @@
       </c>
       <c r="AM205" t="inlineStr"/>
       <c r="AN205" t="n">
-        <v>201.3</v>
+        <v>171</v>
       </c>
       <c r="AO205" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -31735,10 +31735,10 @@
       </c>
       <c r="AM206" t="inlineStr"/>
       <c r="AN206" t="n">
-        <v>132.2</v>
+        <v>151</v>
       </c>
       <c r="AO206" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
@@ -31886,10 +31886,10 @@
       </c>
       <c r="AM207" t="inlineStr"/>
       <c r="AN207" t="n">
-        <v>190.8</v>
+        <v>181</v>
       </c>
       <c r="AO207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -32037,10 +32037,10 @@
       </c>
       <c r="AM208" t="inlineStr"/>
       <c r="AN208" t="n">
-        <v>139.2</v>
+        <v>147</v>
       </c>
       <c r="AO208" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
@@ -32188,10 +32188,10 @@
       </c>
       <c r="AM209" t="inlineStr"/>
       <c r="AN209" t="n">
-        <v>214.4</v>
+        <v>171</v>
       </c>
       <c r="AO209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
@@ -32344,10 +32344,10 @@
       </c>
       <c r="AM210" t="inlineStr"/>
       <c r="AN210" t="n">
-        <v>90.2</v>
+        <v>127</v>
       </c>
       <c r="AO210" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
@@ -32495,10 +32495,10 @@
       </c>
       <c r="AM211" t="inlineStr"/>
       <c r="AN211" t="n">
-        <v>201.8</v>
+        <v>192</v>
       </c>
       <c r="AO211" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
@@ -32646,10 +32646,10 @@
       </c>
       <c r="AM212" t="inlineStr"/>
       <c r="AN212" t="n">
-        <v>173.8</v>
+        <v>167</v>
       </c>
       <c r="AO212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -32797,10 +32797,10 @@
       </c>
       <c r="AM213" t="inlineStr"/>
       <c r="AN213" t="n">
-        <v>190.8</v>
+        <v>171</v>
       </c>
       <c r="AO213" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -32948,10 +32948,10 @@
       </c>
       <c r="AM214" t="inlineStr"/>
       <c r="AN214" t="n">
-        <v>165.8</v>
+        <v>146</v>
       </c>
       <c r="AO214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -33099,7 +33099,7 @@
       </c>
       <c r="AM215" t="inlineStr"/>
       <c r="AN215" t="n">
-        <v>160.8</v>
+        <v>146</v>
       </c>
       <c r="AO215" t="n">
         <v>5</v>
@@ -33250,10 +33250,10 @@
       </c>
       <c r="AM216" t="inlineStr"/>
       <c r="AN216" t="n">
-        <v>185.4</v>
+        <v>162</v>
       </c>
       <c r="AO216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -33401,10 +33401,10 @@
       </c>
       <c r="AM217" t="inlineStr"/>
       <c r="AN217" t="n">
-        <v>171.8</v>
+        <v>149</v>
       </c>
       <c r="AO217" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
@@ -33552,10 +33552,10 @@
       </c>
       <c r="AM218" t="inlineStr"/>
       <c r="AN218" t="n">
-        <v>215.3</v>
+        <v>191</v>
       </c>
       <c r="AO218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -33703,10 +33703,10 @@
       </c>
       <c r="AM219" t="inlineStr"/>
       <c r="AN219" t="n">
-        <v>122.2</v>
+        <v>134</v>
       </c>
       <c r="AO219" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -33854,10 +33854,10 @@
       </c>
       <c r="AM220" t="inlineStr"/>
       <c r="AN220" t="n">
-        <v>222.1</v>
+        <v>183</v>
       </c>
       <c r="AO220" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -34005,10 +34005,10 @@
       </c>
       <c r="AM221" t="inlineStr"/>
       <c r="AN221" t="n">
-        <v>191.4</v>
+        <v>167</v>
       </c>
       <c r="AO221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -34156,10 +34156,10 @@
       </c>
       <c r="AM222" t="inlineStr"/>
       <c r="AN222" t="n">
-        <v>180.8</v>
+        <v>177</v>
       </c>
       <c r="AO222" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -34307,10 +34307,10 @@
       </c>
       <c r="AM223" t="inlineStr"/>
       <c r="AN223" t="n">
-        <v>129.2</v>
+        <v>146</v>
       </c>
       <c r="AO223" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
@@ -34458,10 +34458,10 @@
       </c>
       <c r="AM224" t="inlineStr"/>
       <c r="AN224" t="n">
-        <v>132.2</v>
+        <v>144</v>
       </c>
       <c r="AO224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -34609,10 +34609,10 @@
       </c>
       <c r="AM225" t="inlineStr"/>
       <c r="AN225" t="n">
-        <v>186.8</v>
+        <v>165</v>
       </c>
       <c r="AO225" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -34760,10 +34760,10 @@
       </c>
       <c r="AM226" t="inlineStr"/>
       <c r="AN226" t="n">
-        <v>174.4</v>
+        <v>152</v>
       </c>
       <c r="AO226" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -34911,10 +34911,10 @@
       </c>
       <c r="AM227" t="inlineStr"/>
       <c r="AN227" t="n">
-        <v>175.8</v>
+        <v>176</v>
       </c>
       <c r="AO227" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -35064,10 +35064,10 @@
         <v>172</v>
       </c>
       <c r="AN228" t="n">
-        <v>191.8</v>
+        <v>183</v>
       </c>
       <c r="AO228" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -35217,10 +35217,10 @@
         <v>2</v>
       </c>
       <c r="AN229" t="n">
-        <v>145.8</v>
+        <v>136</v>
       </c>
       <c r="AO229" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -35368,10 +35368,10 @@
       </c>
       <c r="AM230" t="inlineStr"/>
       <c r="AN230" t="n">
-        <v>219.9</v>
+        <v>191</v>
       </c>
       <c r="AO230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -35519,10 +35519,10 @@
       </c>
       <c r="AM231" t="inlineStr"/>
       <c r="AN231" t="n">
-        <v>211.1</v>
+        <v>179</v>
       </c>
       <c r="AO231" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
@@ -35670,10 +35670,10 @@
       </c>
       <c r="AM232" t="inlineStr"/>
       <c r="AN232" t="n">
-        <v>158.8</v>
+        <v>159</v>
       </c>
       <c r="AO232" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -35821,10 +35821,10 @@
       </c>
       <c r="AM233" t="inlineStr"/>
       <c r="AN233" t="n">
-        <v>158.2</v>
+        <v>159</v>
       </c>
       <c r="AO233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
@@ -35972,10 +35972,10 @@
       </c>
       <c r="AM234" t="inlineStr"/>
       <c r="AN234" t="n">
-        <v>236.9</v>
+        <v>212</v>
       </c>
       <c r="AO234" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -36123,10 +36123,10 @@
       </c>
       <c r="AM235" t="inlineStr"/>
       <c r="AN235" t="n">
-        <v>172.8</v>
+        <v>186</v>
       </c>
       <c r="AO235" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -36274,10 +36274,10 @@
       </c>
       <c r="AM236" t="inlineStr"/>
       <c r="AN236" t="n">
-        <v>175.8</v>
+        <v>157</v>
       </c>
       <c r="AO236" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -36425,10 +36425,10 @@
       </c>
       <c r="AM237" t="inlineStr"/>
       <c r="AN237" t="n">
-        <v>201.3</v>
+        <v>171</v>
       </c>
       <c r="AO237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -36576,10 +36576,10 @@
       </c>
       <c r="AM238" t="inlineStr"/>
       <c r="AN238" t="n">
-        <v>129.2</v>
+        <v>156</v>
       </c>
       <c r="AO238" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
@@ -36727,10 +36727,10 @@
       </c>
       <c r="AM239" t="inlineStr"/>
       <c r="AN239" t="n">
-        <v>174.8</v>
+        <v>152</v>
       </c>
       <c r="AO239" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -36878,10 +36878,10 @@
       </c>
       <c r="AM240" t="inlineStr"/>
       <c r="AN240" t="n">
-        <v>185.3</v>
+        <v>162</v>
       </c>
       <c r="AO240" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
@@ -37029,10 +37029,10 @@
       </c>
       <c r="AM241" t="inlineStr"/>
       <c r="AN241" t="n">
-        <v>194.9</v>
+        <v>186</v>
       </c>
       <c r="AO241" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -37180,10 +37180,10 @@
       </c>
       <c r="AM242" t="inlineStr"/>
       <c r="AN242" t="n">
-        <v>154.2</v>
+        <v>179</v>
       </c>
       <c r="AO242" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="AM243" t="inlineStr"/>
       <c r="AN243" t="n">
-        <v>200.8</v>
+        <v>184</v>
       </c>
       <c r="AO243" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
       </c>
       <c r="AM244" t="inlineStr"/>
       <c r="AN244" t="n">
-        <v>153.8</v>
+        <v>150</v>
       </c>
       <c r="AO244" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -37633,7 +37633,7 @@
       </c>
       <c r="AM245" t="inlineStr"/>
       <c r="AN245" t="n">
-        <v>191.8</v>
+        <v>181</v>
       </c>
       <c r="AO245" t="n">
         <v>4</v>
@@ -37784,10 +37784,10 @@
       </c>
       <c r="AM246" t="inlineStr"/>
       <c r="AN246" t="n">
-        <v>231.6</v>
+        <v>201</v>
       </c>
       <c r="AO246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -37935,10 +37935,10 @@
       </c>
       <c r="AM247" t="inlineStr"/>
       <c r="AN247" t="n">
-        <v>217.9</v>
+        <v>180</v>
       </c>
       <c r="AO247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -38086,10 +38086,10 @@
       </c>
       <c r="AM248" t="inlineStr"/>
       <c r="AN248" t="n">
-        <v>164.8</v>
+        <v>160</v>
       </c>
       <c r="AO248" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -38237,10 +38237,10 @@
       </c>
       <c r="AM249" t="inlineStr"/>
       <c r="AN249" t="n">
-        <v>182.4</v>
+        <v>162</v>
       </c>
       <c r="AO249" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250">
@@ -38388,10 +38388,10 @@
       </c>
       <c r="AM250" t="inlineStr"/>
       <c r="AN250" t="n">
-        <v>153.8</v>
+        <v>152</v>
       </c>
       <c r="AO250" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
@@ -38539,10 +38539,10 @@
       </c>
       <c r="AM251" t="inlineStr"/>
       <c r="AN251" t="n">
-        <v>130.2</v>
+        <v>129</v>
       </c>
       <c r="AO251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -38690,10 +38690,10 @@
       </c>
       <c r="AM252" t="inlineStr"/>
       <c r="AN252" t="n">
-        <v>119.2</v>
+        <v>148</v>
       </c>
       <c r="AO252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -38841,10 +38841,10 @@
       </c>
       <c r="AM253" t="inlineStr"/>
       <c r="AN253" t="n">
-        <v>197.6</v>
+        <v>182</v>
       </c>
       <c r="AO253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -38992,10 +38992,10 @@
       </c>
       <c r="AM254" t="inlineStr"/>
       <c r="AN254" t="n">
-        <v>212.9</v>
+        <v>188</v>
       </c>
       <c r="AO254" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -39143,10 +39143,10 @@
       </c>
       <c r="AM255" t="inlineStr"/>
       <c r="AN255" t="n">
-        <v>230.1</v>
+        <v>197</v>
       </c>
       <c r="AO255" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -39294,10 +39294,10 @@
       </c>
       <c r="AM256" t="inlineStr"/>
       <c r="AN256" t="n">
-        <v>185.4</v>
+        <v>156</v>
       </c>
       <c r="AO256" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -39447,10 +39447,10 @@
         <v>53</v>
       </c>
       <c r="AN257" t="n">
-        <v>229.4</v>
+        <v>209</v>
       </c>
       <c r="AO257" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -39598,10 +39598,10 @@
       </c>
       <c r="AM258" t="inlineStr"/>
       <c r="AN258" t="n">
-        <v>191.8</v>
+        <v>171</v>
       </c>
       <c r="AO258" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -39749,10 +39749,10 @@
       </c>
       <c r="AM259" t="inlineStr"/>
       <c r="AN259" t="n">
-        <v>178.8</v>
+        <v>156</v>
       </c>
       <c r="AO259" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
@@ -39900,10 +39900,10 @@
       </c>
       <c r="AM260" t="inlineStr"/>
       <c r="AN260" t="n">
-        <v>137.2</v>
+        <v>158</v>
       </c>
       <c r="AO260" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
@@ -40051,10 +40051,10 @@
       </c>
       <c r="AM261" t="inlineStr"/>
       <c r="AN261" t="n">
-        <v>208.3</v>
+        <v>179</v>
       </c>
       <c r="AO261" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -40202,10 +40202,10 @@
       </c>
       <c r="AM262" t="inlineStr"/>
       <c r="AN262" t="n">
-        <v>144.2</v>
+        <v>152</v>
       </c>
       <c r="AO262" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -40353,10 +40353,10 @@
       </c>
       <c r="AM263" t="inlineStr"/>
       <c r="AN263" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="AO263" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
@@ -40504,10 +40504,10 @@
       </c>
       <c r="AM264" t="inlineStr"/>
       <c r="AN264" t="n">
-        <v>169.8</v>
+        <v>157</v>
       </c>
       <c r="AO264" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -40655,10 +40655,10 @@
       </c>
       <c r="AM265" t="inlineStr"/>
       <c r="AN265" t="n">
-        <v>225.3</v>
+        <v>198</v>
       </c>
       <c r="AO265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -40806,10 +40806,10 @@
       </c>
       <c r="AM266" t="inlineStr"/>
       <c r="AN266" t="n">
-        <v>203.8</v>
+        <v>192</v>
       </c>
       <c r="AO266" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
@@ -40959,10 +40959,10 @@
         <v>124</v>
       </c>
       <c r="AN267" t="n">
-        <v>129.2</v>
+        <v>148</v>
       </c>
       <c r="AO267" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
@@ -41110,7 +41110,7 @@
       </c>
       <c r="AM268" t="inlineStr"/>
       <c r="AN268" t="n">
-        <v>180.8</v>
+        <v>177</v>
       </c>
       <c r="AO268" t="n">
         <v>5</v>
@@ -41261,10 +41261,10 @@
       </c>
       <c r="AM269" t="inlineStr"/>
       <c r="AN269" t="n">
-        <v>188.8</v>
+        <v>183</v>
       </c>
       <c r="AO269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
@@ -41412,10 +41412,10 @@
       </c>
       <c r="AM270" t="inlineStr"/>
       <c r="AN270" t="n">
-        <v>142.2</v>
+        <v>165</v>
       </c>
       <c r="AO270" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
@@ -41563,10 +41563,10 @@
       </c>
       <c r="AM271" t="inlineStr"/>
       <c r="AN271" t="n">
-        <v>213.1</v>
+        <v>195</v>
       </c>
       <c r="AO271" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
@@ -41714,10 +41714,10 @@
       </c>
       <c r="AM272" t="inlineStr"/>
       <c r="AN272" t="n">
-        <v>208.3</v>
+        <v>189</v>
       </c>
       <c r="AO272" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -41865,10 +41865,10 @@
       </c>
       <c r="AM273" t="inlineStr"/>
       <c r="AN273" t="n">
-        <v>108.2</v>
+        <v>144</v>
       </c>
       <c r="AO273" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
@@ -42016,10 +42016,10 @@
       </c>
       <c r="AM274" t="inlineStr"/>
       <c r="AN274" t="n">
-        <v>183.8</v>
+        <v>179</v>
       </c>
       <c r="AO274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
@@ -42167,10 +42167,10 @@
       </c>
       <c r="AM275" t="inlineStr"/>
       <c r="AN275" t="n">
-        <v>252.6</v>
+        <v>224</v>
       </c>
       <c r="AO275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -42318,10 +42318,10 @@
       </c>
       <c r="AM276" t="inlineStr"/>
       <c r="AN276" t="n">
-        <v>231.4</v>
+        <v>202</v>
       </c>
       <c r="AO276" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
@@ -42469,10 +42469,10 @@
       </c>
       <c r="AM277" t="inlineStr"/>
       <c r="AN277" t="n">
-        <v>156.8</v>
+        <v>148</v>
       </c>
       <c r="AO277" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -42620,10 +42620,10 @@
       </c>
       <c r="AM278" t="inlineStr"/>
       <c r="AN278" t="n">
-        <v>169.8</v>
+        <v>171</v>
       </c>
       <c r="AO278" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="AM279" t="inlineStr"/>
       <c r="AN279" t="n">
-        <v>181.3</v>
+        <v>149</v>
       </c>
       <c r="AO279" t="n">
         <v>6</v>
@@ -42922,10 +42922,10 @@
       </c>
       <c r="AM280" t="inlineStr"/>
       <c r="AN280" t="n">
-        <v>219.1</v>
+        <v>195</v>
       </c>
       <c r="AO280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -43073,10 +43073,10 @@
       </c>
       <c r="AM281" t="inlineStr"/>
       <c r="AN281" t="n">
-        <v>183.8</v>
+        <v>154</v>
       </c>
       <c r="AO281" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
@@ -43224,10 +43224,10 @@
       </c>
       <c r="AM282" t="inlineStr"/>
       <c r="AN282" t="n">
-        <v>164.8</v>
+        <v>164</v>
       </c>
       <c r="AO282" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -43375,10 +43375,10 @@
       </c>
       <c r="AM283" t="inlineStr"/>
       <c r="AN283" t="n">
-        <v>182.4</v>
+        <v>160</v>
       </c>
       <c r="AO283" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -43526,10 +43526,10 @@
       </c>
       <c r="AM284" t="inlineStr"/>
       <c r="AN284" t="n">
-        <v>208.6</v>
+        <v>190</v>
       </c>
       <c r="AO284" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -43677,10 +43677,10 @@
       </c>
       <c r="AM285" t="inlineStr"/>
       <c r="AN285" t="n">
-        <v>193.8</v>
+        <v>177</v>
       </c>
       <c r="AO285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -43828,7 +43828,7 @@
       </c>
       <c r="AM286" t="inlineStr"/>
       <c r="AN286" t="n">
-        <v>71.7</v>
+        <v>113</v>
       </c>
       <c r="AO286" t="n">
         <v>0</v>
@@ -43979,10 +43979,10 @@
       </c>
       <c r="AM287" t="inlineStr"/>
       <c r="AN287" t="n">
-        <v>230.1</v>
+        <v>204</v>
       </c>
       <c r="AO287" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
@@ -44065,7 +44065,7 @@
         <v>0</v>
       </c>
       <c r="AO288" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
@@ -44233,7 +44233,7 @@
         <v>0</v>
       </c>
       <c r="AO290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291">
@@ -44317,7 +44317,7 @@
         <v>0</v>
       </c>
       <c r="AO291" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
@@ -44400,7 +44400,7 @@
         <v>0</v>
       </c>
       <c r="AO292" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293">
@@ -44483,7 +44483,7 @@
         <v>0</v>
       </c>
       <c r="AO293" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
@@ -44566,7 +44566,7 @@
         <v>0</v>
       </c>
       <c r="AO294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/group_assign_df_결시생처리후.xlsx
+++ b/group_assign_df_결시생처리후.xlsx
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AO2">
         <v>6</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>53.66666666666666</v>
+        <v>161</v>
       </c>
       <c r="AO3">
         <v>4</v>
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="AN4">
-        <v>54.33333333333334</v>
+        <v>163</v>
       </c>
       <c r="AO4">
         <v>9</v>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="AN5">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO5">
         <v>7</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="AO6">
         <v>8</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>65.33333333333333</v>
+        <v>196</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="AO8">
         <v>6</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>52.33333333333334</v>
+        <v>157</v>
       </c>
       <c r="AO9">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>60.33333333333334</v>
+        <v>181</v>
       </c>
       <c r="AO10">
         <v>8</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>58.66666666666666</v>
+        <v>176</v>
       </c>
       <c r="AO11">
         <v>4</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>38.33333333333334</v>
+        <v>115</v>
       </c>
       <c r="AO12">
         <v>2</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>65.66666666666667</v>
+        <v>197</v>
       </c>
       <c r="AO14">
         <v>6</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO15">
         <v>2</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>46.33333333333334</v>
+        <v>139</v>
       </c>
       <c r="AO16">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="AO17">
         <v>6</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>62.66666666666666</v>
+        <v>188</v>
       </c>
       <c r="AO18">
         <v>8</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>48.66666666666666</v>
+        <v>146</v>
       </c>
       <c r="AO19">
         <v>7</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>36.33333333333334</v>
+        <v>109</v>
       </c>
       <c r="AO20">
         <v>2</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO21">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AO22">
         <v>7</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO23">
         <v>3</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>36.66666666666666</v>
+        <v>110</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO25">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO26">
         <v>1</v>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>61.33333333333334</v>
+        <v>184</v>
       </c>
       <c r="AO27">
         <v>6</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>57.33333333333334</v>
+        <v>172</v>
       </c>
       <c r="AO28">
         <v>2</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>45.66666666666666</v>
+        <v>137</v>
       </c>
       <c r="AO29">
         <v>2</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO30">
         <v>3</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO31">
         <v>3</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO32">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>58.33333333333334</v>
+        <v>175</v>
       </c>
       <c r="AO33">
         <v>9</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>64.66666666666667</v>
+        <v>194</v>
       </c>
       <c r="AO34">
         <v>4</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="AN35">
-        <v>56.33333333333334</v>
+        <v>169</v>
       </c>
       <c r="AO35">
         <v>7</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>65.33333333333333</v>
+        <v>196</v>
       </c>
       <c r="AO36">
         <v>8</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO37">
         <v>2</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>65.33333333333333</v>
+        <v>196</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO39">
         <v>5</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>49.66666666666666</v>
+        <v>149</v>
       </c>
       <c r="AO40">
         <v>6</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>53.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="AO41">
         <v>3</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>52.66666666666666</v>
+        <v>158</v>
       </c>
       <c r="AO42">
         <v>3</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AN43">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO43">
         <v>4</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="AN44">
-        <v>58.66666666666666</v>
+        <v>176</v>
       </c>
       <c r="AO44">
         <v>5</v>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="AN45">
-        <v>65.33333333333333</v>
+        <v>196</v>
       </c>
       <c r="AO45">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>47.33333333333334</v>
+        <v>142</v>
       </c>
       <c r="AO46">
         <v>4</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>68.66666666666667</v>
+        <v>206</v>
       </c>
       <c r="AO47">
         <v>9</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO48">
         <v>5</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO49">
         <v>4</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="AN51">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO52">
         <v>1</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO53">
         <v>8</v>
@@ -9486,7 +9486,7 @@
         <v>53</v>
       </c>
       <c r="AN54">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO54">
         <v>2</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>48.66666666666666</v>
+        <v>146</v>
       </c>
       <c r="AO55">
         <v>6</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>54.33333333333334</v>
+        <v>163</v>
       </c>
       <c r="AO56">
         <v>7</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="AN58">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO59">
         <v>6</v>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO60">
         <v>3</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AO61">
         <v>1</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>46.66666666666666</v>
+        <v>140</v>
       </c>
       <c r="AO62">
         <v>1</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO63">
         <v>5</v>
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>65.66666666666667</v>
+        <v>197</v>
       </c>
       <c r="AO64">
         <v>5</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>68.33333333333333</v>
+        <v>205</v>
       </c>
       <c r="AO65">
         <v>7</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>65.33333333333333</v>
+        <v>196</v>
       </c>
       <c r="AO66">
         <v>9</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>62.33333333333334</v>
+        <v>187</v>
       </c>
       <c r="AO67">
         <v>6</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="AN68">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AO69">
         <v>3</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>53.66666666666666</v>
+        <v>161</v>
       </c>
       <c r="AO70">
         <v>6</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="AN71">
-        <v>35.66666666666666</v>
+        <v>107</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="AN72">
-        <v>47.66666666666666</v>
+        <v>143</v>
       </c>
       <c r="AO72">
         <v>6</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>44.33333333333334</v>
+        <v>133</v>
       </c>
       <c r="AO73">
         <v>7</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>39.33333333333334</v>
+        <v>118</v>
       </c>
       <c r="AO74">
         <v>5</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO75">
         <v>3</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="AO76">
         <v>9</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="AN77">
-        <v>62.33333333333334</v>
+        <v>187</v>
       </c>
       <c r="AO77">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="AN78">
-        <v>82.33333333333333</v>
+        <v>247</v>
       </c>
       <c r="AO78">
         <v>2</v>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="AN79">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AO79">
         <v>6</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO80">
         <v>9</v>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>48.66666666666666</v>
+        <v>146</v>
       </c>
       <c r="AO81">
         <v>7</v>
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>45.66666666666666</v>
+        <v>137</v>
       </c>
       <c r="AO82">
         <v>1</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>61.66666666666666</v>
+        <v>185</v>
       </c>
       <c r="AO83">
         <v>8</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO84">
         <v>3</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>46.33333333333334</v>
+        <v>139</v>
       </c>
       <c r="AO85">
         <v>6</v>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="AN86">
-        <v>59.66666666666666</v>
+        <v>179</v>
       </c>
       <c r="AO86">
         <v>2</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AO87">
         <v>5</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO88">
         <v>7</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AN89">
-        <v>61.33333333333334</v>
+        <v>184</v>
       </c>
       <c r="AO89">
         <v>5</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AN90">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO90">
         <v>7</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="AN91">
-        <v>52.33333333333334</v>
+        <v>157</v>
       </c>
       <c r="AO91">
         <v>1</v>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO92">
         <v>1</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO93">
         <v>5</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="AN94">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="AO94">
         <v>1</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="AN95">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AO95">
         <v>8</v>
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="AN96">
-        <v>66.33333333333333</v>
+        <v>199</v>
       </c>
       <c r="AO96">
         <v>2</v>
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO97">
         <v>8</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>46.66666666666666</v>
+        <v>140</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -14583,7 +14583,7 @@
         <v>98</v>
       </c>
       <c r="AN99">
-        <v>57.66666666666666</v>
+        <v>173</v>
       </c>
       <c r="AO99">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="AN100">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO100">
         <v>6</v>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="AN101">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="AO101">
         <v>0</v>
@@ -14922,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="AN102">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="AO102">
         <v>2</v>
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="AN103">
-        <v>63.33333333333334</v>
+        <v>190</v>
       </c>
       <c r="AO103">
         <v>2</v>
@@ -15151,7 +15151,7 @@
         <v>103</v>
       </c>
       <c r="AN104">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO104">
         <v>5</v>
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="AN105">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO105">
         <v>9</v>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="AN106">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO106">
         <v>6</v>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="AN107">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AO107">
         <v>7</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="AN108">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO108">
         <v>9</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>56.33333333333334</v>
+        <v>169</v>
       </c>
       <c r="AO109">
         <v>8</v>
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="AN110">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO110">
         <v>8</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="AN111">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO111">
         <v>5</v>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="AN112">
-        <v>57.33333333333334</v>
+        <v>172</v>
       </c>
       <c r="AO112">
         <v>4</v>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="AN113">
-        <v>54.33333333333334</v>
+        <v>163</v>
       </c>
       <c r="AO113">
         <v>8</v>
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="AN114">
-        <v>51.33333333333334</v>
+        <v>154</v>
       </c>
       <c r="AO114">
         <v>7</v>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO115">
         <v>0</v>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="AN116">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AO116">
         <v>4</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="AN117">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO117">
         <v>5</v>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO118">
         <v>1</v>
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="AN119">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AO119">
         <v>2</v>
@@ -16974,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="AN120">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO120">
         <v>5</v>
@@ -17093,7 +17093,7 @@
         <v>3</v>
       </c>
       <c r="AN121">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO121">
         <v>0</v>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="AN122">
-        <v>61.33333333333334</v>
+        <v>184</v>
       </c>
       <c r="AO122">
         <v>4</v>
@@ -17322,7 +17322,7 @@
         <v>124</v>
       </c>
       <c r="AN123">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO123">
         <v>4</v>
@@ -17435,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO124">
         <v>1</v>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="AN125">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="AO125">
         <v>7</v>
@@ -17661,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="AN126">
-        <v>66.33333333333333</v>
+        <v>199</v>
       </c>
       <c r="AO126">
         <v>3</v>
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="AN127">
-        <v>55.66666666666666</v>
+        <v>167</v>
       </c>
       <c r="AO127">
         <v>4</v>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="AN128">
-        <v>64.66666666666667</v>
+        <v>194</v>
       </c>
       <c r="AO128">
         <v>8</v>
@@ -18003,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="AN129">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="AO129">
         <v>7</v>
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="AN130">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO130">
         <v>5</v>
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="AO131">
         <v>8</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="AN132">
-        <v>51.33333333333334</v>
+        <v>154</v>
       </c>
       <c r="AO132">
         <v>6</v>
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="AN133">
-        <v>54.66666666666666</v>
+        <v>164</v>
       </c>
       <c r="AO133">
         <v>0</v>
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
       <c r="AN134">
-        <v>63.66666666666666</v>
+        <v>191</v>
       </c>
       <c r="AO134">
         <v>7</v>
@@ -18681,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="AN135">
-        <v>53.66666666666666</v>
+        <v>161</v>
       </c>
       <c r="AO135">
         <v>8</v>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AO136">
         <v>1</v>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="AO137">
         <v>8</v>
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>45.66666666666666</v>
+        <v>137</v>
       </c>
       <c r="AO138">
         <v>3</v>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO139">
         <v>6</v>
@@ -19246,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>35.66666666666666</v>
+        <v>107</v>
       </c>
       <c r="AO140">
         <v>0</v>
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="AO141">
         <v>3</v>
@@ -19472,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO142">
         <v>2</v>
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AO143">
         <v>8</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="AN144">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO144">
         <v>8</v>
@@ -19814,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="AN145">
-        <v>69.33333333333333</v>
+        <v>208</v>
       </c>
       <c r="AO145">
         <v>1</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="AN146">
-        <v>58.66666666666666</v>
+        <v>176</v>
       </c>
       <c r="AO146">
         <v>1</v>
@@ -20043,7 +20043,7 @@
         <v>103</v>
       </c>
       <c r="AN147">
-        <v>44.33333333333334</v>
+        <v>133</v>
       </c>
       <c r="AO147">
         <v>8</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AO148">
         <v>4</v>
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>55.66666666666666</v>
+        <v>167</v>
       </c>
       <c r="AO149">
         <v>6</v>
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="AO150">
         <v>0</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="AN151">
-        <v>63.33333333333334</v>
+        <v>190</v>
       </c>
       <c r="AO151">
         <v>3</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AN152">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO152">
         <v>3</v>
@@ -20724,7 +20724,7 @@
         <v>0</v>
       </c>
       <c r="AN153">
-        <v>63.66666666666666</v>
+        <v>191</v>
       </c>
       <c r="AO153">
         <v>4</v>
@@ -20840,7 +20840,7 @@
         <v>98</v>
       </c>
       <c r="AN154">
-        <v>68.66666666666667</v>
+        <v>206</v>
       </c>
       <c r="AO154">
         <v>0</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="AN155">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="AO155">
         <v>9</v>
@@ -21066,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="AN156">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO156">
         <v>6</v>
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>67.33333333333333</v>
+        <v>202</v>
       </c>
       <c r="AO157">
         <v>5</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="AN158">
-        <v>45.66666666666666</v>
+        <v>137</v>
       </c>
       <c r="AO158">
         <v>2</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="AO159">
         <v>1</v>
@@ -21524,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="AO160">
         <v>4</v>
@@ -21637,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="AN161">
-        <v>42.66666666666666</v>
+        <v>128</v>
       </c>
       <c r="AO161">
         <v>9</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO162">
         <v>4</v>
@@ -21863,7 +21863,7 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>51.66666666666666</v>
+        <v>155</v>
       </c>
       <c r="AO163">
         <v>8</v>
@@ -21976,7 +21976,7 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>53.66666666666666</v>
+        <v>161</v>
       </c>
       <c r="AO164">
         <v>5</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>38.66666666666666</v>
+        <v>116</v>
       </c>
       <c r="AO165">
         <v>3</v>
@@ -22205,7 +22205,7 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="AO166">
         <v>4</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="AN167">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO167">
         <v>5</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="AN168">
-        <v>63.33333333333334</v>
+        <v>190</v>
       </c>
       <c r="AO168">
         <v>1</v>
@@ -22544,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="AN169">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO169">
         <v>3</v>
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="AN170">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO170">
         <v>2</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="AN171">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AO171">
         <v>4</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="AN172">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO172">
         <v>2</v>
@@ -23002,7 +23002,7 @@
         <v>172</v>
       </c>
       <c r="AN173">
-        <v>53.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="AO173">
         <v>0</v>
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
       <c r="AN174">
-        <v>58.33333333333334</v>
+        <v>175</v>
       </c>
       <c r="AO174">
         <v>8</v>
@@ -23228,7 +23228,7 @@
         <v>0</v>
       </c>
       <c r="AN175">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AO175">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="AN176">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO176">
         <v>3</v>
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AO177">
         <v>0</v>
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="AN178">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO178">
         <v>1</v>
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="AN179">
-        <v>45.66666666666666</v>
+        <v>137</v>
       </c>
       <c r="AO179">
         <v>9</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="AN180">
-        <v>53.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="AO180">
         <v>2</v>
@@ -23909,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="AN181">
-        <v>53.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="AO181">
         <v>4</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="AN182">
-        <v>60.33333333333334</v>
+        <v>181</v>
       </c>
       <c r="AO182">
         <v>7</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="AN183">
-        <v>54.33333333333334</v>
+        <v>163</v>
       </c>
       <c r="AO183">
         <v>6</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO184">
         <v>2</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="AN185">
-        <v>57.33333333333334</v>
+        <v>172</v>
       </c>
       <c r="AO185">
         <v>3</v>
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="AN186">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO186">
         <v>4</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="AN187">
-        <v>75.33333333333333</v>
+        <v>226</v>
       </c>
       <c r="AO187">
         <v>1</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="AN188">
-        <v>58.66666666666666</v>
+        <v>176</v>
       </c>
       <c r="AO188">
         <v>3</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="AN189">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO189">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>57.66666666666666</v>
+        <v>173</v>
       </c>
       <c r="AO190">
         <v>8</v>
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="AN191">
-        <v>48.33333333333334</v>
+        <v>145</v>
       </c>
       <c r="AO191">
         <v>3</v>
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="AN192">
-        <v>46.66666666666666</v>
+        <v>140</v>
       </c>
       <c r="AO192">
         <v>8</v>
@@ -25271,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="AN193">
-        <v>60.33333333333334</v>
+        <v>181</v>
       </c>
       <c r="AO193">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>62.33333333333334</v>
+        <v>187</v>
       </c>
       <c r="AO194">
         <v>5</v>
@@ -25500,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="AN195">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="AO195">
         <v>0</v>
@@ -25613,7 +25613,7 @@
         <v>0</v>
       </c>
       <c r="AN196">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO196">
         <v>4</v>
@@ -25726,7 +25726,7 @@
         <v>0</v>
       </c>
       <c r="AN197">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AO197">
         <v>8</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="AN198">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO198">
         <v>5</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="AN199">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO199">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="AN200">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO200">
         <v>4</v>
@@ -26178,7 +26178,7 @@
         <v>0</v>
       </c>
       <c r="AN201">
-        <v>50.66666666666666</v>
+        <v>152</v>
       </c>
       <c r="AO201">
         <v>8</v>
@@ -26291,7 +26291,7 @@
         <v>0</v>
       </c>
       <c r="AN202">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO202">
         <v>9</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="AN203">
-        <v>44.33333333333334</v>
+        <v>133</v>
       </c>
       <c r="AO203">
         <v>5</v>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="AN204">
-        <v>48.33333333333334</v>
+        <v>145</v>
       </c>
       <c r="AO204">
         <v>0</v>
@@ -26630,7 +26630,7 @@
         <v>0</v>
       </c>
       <c r="AN205">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO205">
         <v>4</v>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>48.66666666666666</v>
+        <v>146</v>
       </c>
       <c r="AO206">
         <v>8</v>
@@ -26856,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="AN207">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO207">
         <v>7</v>
@@ -26969,7 +26969,7 @@
         <v>0</v>
       </c>
       <c r="AN208">
-        <v>49.66666666666666</v>
+        <v>149</v>
       </c>
       <c r="AO208">
         <v>7</v>
@@ -27082,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="AN209">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO209">
         <v>6</v>
@@ -27198,7 +27198,7 @@
         <v>0</v>
       </c>
       <c r="AN210">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AO210">
         <v>7</v>
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="AN211">
-        <v>65.66666666666667</v>
+        <v>197</v>
       </c>
       <c r="AO211">
         <v>3</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="AN212">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO212">
         <v>4</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="AN213">
-        <v>57.66666666666666</v>
+        <v>173</v>
       </c>
       <c r="AO213">
         <v>7</v>
@@ -27650,7 +27650,7 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <v>48.33333333333334</v>
+        <v>145</v>
       </c>
       <c r="AO214">
         <v>2</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>49.66666666666666</v>
+        <v>149</v>
       </c>
       <c r="AO215">
         <v>5</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="AN216">
-        <v>52.33333333333334</v>
+        <v>157</v>
       </c>
       <c r="AO216">
         <v>1</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="AN217">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AO217">
         <v>3</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="AN218">
-        <v>62.66666666666666</v>
+        <v>188</v>
       </c>
       <c r="AO218">
         <v>9</v>
@@ -28215,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="AN219">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AO219">
         <v>4</v>
@@ -28328,7 +28328,7 @@
         <v>0</v>
       </c>
       <c r="AN220">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO220">
         <v>8</v>
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>51.66666666666666</v>
+        <v>155</v>
       </c>
       <c r="AO221">
         <v>9</v>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
       <c r="AN222">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO222">
         <v>9</v>
@@ -28667,7 +28667,7 @@
         <v>0</v>
       </c>
       <c r="AN223">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AO223">
         <v>6</v>
@@ -28780,7 +28780,7 @@
         <v>0</v>
       </c>
       <c r="AN224">
-        <v>46.33333333333334</v>
+        <v>139</v>
       </c>
       <c r="AO224">
         <v>7</v>
@@ -28893,7 +28893,7 @@
         <v>0</v>
       </c>
       <c r="AN225">
-        <v>55.66666666666666</v>
+        <v>167</v>
       </c>
       <c r="AO225">
         <v>7</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="AN226">
-        <v>46.66666666666666</v>
+        <v>140</v>
       </c>
       <c r="AO226">
         <v>9</v>
@@ -29119,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="AN227">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO227">
         <v>1</v>
@@ -29235,7 +29235,7 @@
         <v>172</v>
       </c>
       <c r="AN228">
-        <v>60.66666666666666</v>
+        <v>182</v>
       </c>
       <c r="AO228">
         <v>3</v>
@@ -29351,7 +29351,7 @@
         <v>2</v>
       </c>
       <c r="AN229">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AO229">
         <v>9</v>
@@ -29464,7 +29464,7 @@
         <v>0</v>
       </c>
       <c r="AN230">
-        <v>62.33333333333334</v>
+        <v>187</v>
       </c>
       <c r="AO230">
         <v>7</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="AN231">
-        <v>57.33333333333334</v>
+        <v>172</v>
       </c>
       <c r="AO231">
         <v>2</v>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>50.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="AO232">
         <v>4</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO233">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="AN234">
-        <v>69.33333333333333</v>
+        <v>208</v>
       </c>
       <c r="AO234">
         <v>2</v>
@@ -30029,7 +30029,7 @@
         <v>0</v>
       </c>
       <c r="AN235">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="AO235">
         <v>9</v>
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
       <c r="AN236">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO236">
         <v>8</v>
@@ -30255,7 +30255,7 @@
         <v>0</v>
       </c>
       <c r="AN237">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO237">
         <v>9</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="AN238">
-        <v>55.33333333333334</v>
+        <v>166</v>
       </c>
       <c r="AO238">
         <v>3</v>
@@ -30481,7 +30481,7 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="AO239">
         <v>1</v>
@@ -30594,7 +30594,7 @@
         <v>0</v>
       </c>
       <c r="AN240">
-        <v>48.66666666666666</v>
+        <v>146</v>
       </c>
       <c r="AO240">
         <v>5</v>
@@ -30707,7 +30707,7 @@
         <v>0</v>
       </c>
       <c r="AN241">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="AO241">
         <v>0</v>
@@ -30820,7 +30820,7 @@
         <v>0</v>
       </c>
       <c r="AN242">
-        <v>61.33333333333334</v>
+        <v>184</v>
       </c>
       <c r="AO242">
         <v>7</v>
@@ -30933,7 +30933,7 @@
         <v>0</v>
       </c>
       <c r="AN243">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AO243">
         <v>5</v>
@@ -31046,7 +31046,7 @@
         <v>0</v>
       </c>
       <c r="AN244">
-        <v>47.33333333333334</v>
+        <v>142</v>
       </c>
       <c r="AO244">
         <v>5</v>
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
       <c r="AN245">
-        <v>58.66666666666666</v>
+        <v>176</v>
       </c>
       <c r="AO245">
         <v>4</v>
@@ -31272,7 +31272,7 @@
         <v>0</v>
       </c>
       <c r="AN246">
-        <v>66.66666666666667</v>
+        <v>200</v>
       </c>
       <c r="AO246">
         <v>4</v>
@@ -31385,7 +31385,7 @@
         <v>0</v>
       </c>
       <c r="AN247">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO247">
         <v>0</v>
@@ -31498,7 +31498,7 @@
         <v>0</v>
       </c>
       <c r="AN248">
-        <v>48.33333333333334</v>
+        <v>145</v>
       </c>
       <c r="AO248">
         <v>1</v>
@@ -31611,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="AN249">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AO249">
         <v>9</v>
@@ -31724,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="AN250">
-        <v>49.33333333333334</v>
+        <v>148</v>
       </c>
       <c r="AO250">
         <v>7</v>
@@ -31837,7 +31837,7 @@
         <v>0</v>
       </c>
       <c r="AN251">
-        <v>43.66666666666666</v>
+        <v>131</v>
       </c>
       <c r="AO251">
         <v>1</v>
@@ -31950,7 +31950,7 @@
         <v>0</v>
       </c>
       <c r="AN252">
-        <v>49.33333333333334</v>
+        <v>148</v>
       </c>
       <c r="AO252">
         <v>3</v>
@@ -32063,7 +32063,7 @@
         <v>0</v>
       </c>
       <c r="AN253">
-        <v>54.66666666666666</v>
+        <v>164</v>
       </c>
       <c r="AO253">
         <v>5</v>
@@ -32176,7 +32176,7 @@
         <v>0</v>
       </c>
       <c r="AN254">
-        <v>56.33333333333334</v>
+        <v>169</v>
       </c>
       <c r="AO254">
         <v>2</v>
@@ -32289,7 +32289,7 @@
         <v>0</v>
       </c>
       <c r="AN255">
-        <v>65.66666666666667</v>
+        <v>197</v>
       </c>
       <c r="AO255">
         <v>4</v>
@@ -32402,7 +32402,7 @@
         <v>0</v>
       </c>
       <c r="AN256">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="AO256">
         <v>9</v>
@@ -32518,7 +32518,7 @@
         <v>53</v>
       </c>
       <c r="AN257">
-        <v>71.33333333333333</v>
+        <v>214</v>
       </c>
       <c r="AO257">
         <v>7</v>
@@ -32631,7 +32631,7 @@
         <v>0</v>
       </c>
       <c r="AN258">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO258">
         <v>3</v>
@@ -32744,7 +32744,7 @@
         <v>0</v>
       </c>
       <c r="AN259">
-        <v>51.66666666666666</v>
+        <v>155</v>
       </c>
       <c r="AO259">
         <v>0</v>
@@ -32857,7 +32857,7 @@
         <v>0</v>
       </c>
       <c r="AN260">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AO260">
         <v>8</v>
@@ -32970,7 +32970,7 @@
         <v>0</v>
       </c>
       <c r="AN261">
-        <v>57.66666666666666</v>
+        <v>173</v>
       </c>
       <c r="AO261">
         <v>6</v>
@@ -33083,7 +33083,7 @@
         <v>0</v>
       </c>
       <c r="AN262">
-        <v>54.66666666666666</v>
+        <v>164</v>
       </c>
       <c r="AO262">
         <v>9</v>
@@ -33196,7 +33196,7 @@
         <v>0</v>
       </c>
       <c r="AN263">
-        <v>64.33333333333333</v>
+        <v>193</v>
       </c>
       <c r="AO263">
         <v>9</v>
@@ -33309,7 +33309,7 @@
         <v>0</v>
       </c>
       <c r="AN264">
-        <v>53.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="AO264">
         <v>1</v>
@@ -33422,7 +33422,7 @@
         <v>0</v>
       </c>
       <c r="AN265">
-        <v>68.33333333333333</v>
+        <v>205</v>
       </c>
       <c r="AO265">
         <v>8</v>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
       <c r="AN266">
-        <v>64.66666666666667</v>
+        <v>194</v>
       </c>
       <c r="AO266">
         <v>6</v>
@@ -33651,7 +33651,7 @@
         <v>124</v>
       </c>
       <c r="AN267">
-        <v>52.66666666666666</v>
+        <v>158</v>
       </c>
       <c r="AO267">
         <v>2</v>
@@ -33764,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="AN268">
-        <v>56.33333333333334</v>
+        <v>169</v>
       </c>
       <c r="AO268">
         <v>5</v>
@@ -33877,7 +33877,7 @@
         <v>0</v>
       </c>
       <c r="AN269">
-        <v>58.33333333333334</v>
+        <v>175</v>
       </c>
       <c r="AO269">
         <v>0</v>
@@ -33990,7 +33990,7 @@
         <v>0</v>
       </c>
       <c r="AN270">
-        <v>56.66666666666666</v>
+        <v>170</v>
       </c>
       <c r="AO270">
         <v>7</v>
@@ -34103,7 +34103,7 @@
         <v>0</v>
       </c>
       <c r="AN271">
-        <v>59.33333333333334</v>
+        <v>178</v>
       </c>
       <c r="AO271">
         <v>7</v>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
       <c r="AN272">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="AO272">
         <v>3</v>
@@ -34329,7 +34329,7 @@
         <v>0</v>
       </c>
       <c r="AN273">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AO273">
         <v>3</v>
@@ -34442,7 +34442,7 @@
         <v>0</v>
       </c>
       <c r="AN274">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO274">
         <v>3</v>
@@ -34555,7 +34555,7 @@
         <v>0</v>
       </c>
       <c r="AN275">
-        <v>74.33333333333333</v>
+        <v>223</v>
       </c>
       <c r="AO275">
         <v>0</v>
@@ -34668,7 +34668,7 @@
         <v>0</v>
       </c>
       <c r="AN276">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="AO276">
         <v>6</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="AN277">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="AO277">
         <v>0</v>
@@ -34894,7 +34894,7 @@
         <v>0</v>
       </c>
       <c r="AN278">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AO278">
         <v>6</v>
@@ -35007,7 +35007,7 @@
         <v>0</v>
       </c>
       <c r="AN279">
-        <v>44.33333333333334</v>
+        <v>133</v>
       </c>
       <c r="AO279">
         <v>6</v>
@@ -35120,7 +35120,7 @@
         <v>0</v>
       </c>
       <c r="AN280">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="AO280">
         <v>7</v>
@@ -35233,7 +35233,7 @@
         <v>0</v>
       </c>
       <c r="AN281">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="AO281">
         <v>2</v>
@@ -35346,7 +35346,7 @@
         <v>0</v>
       </c>
       <c r="AN282">
-        <v>55.66666666666666</v>
+        <v>167</v>
       </c>
       <c r="AO282">
         <v>2</v>
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
       <c r="AN283">
-        <v>49.33333333333334</v>
+        <v>148</v>
       </c>
       <c r="AO283">
         <v>2</v>
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="AN284">
-        <v>59.66666666666666</v>
+        <v>179</v>
       </c>
       <c r="AO284">
         <v>4</v>
@@ -35685,7 +35685,7 @@
         <v>0</v>
       </c>
       <c r="AN285">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="AO285">
         <v>9</v>
@@ -35798,7 +35798,7 @@
         <v>0</v>
       </c>
       <c r="AN286">
-        <v>35.66666666666666</v>
+        <v>107</v>
       </c>
       <c r="AO286">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="AN287">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="AO287">
         <v>6</v>
@@ -35948,6 +35948,9 @@
       <c r="AL288">
         <v>0</v>
       </c>
+      <c r="AN288">
+        <v>0</v>
+      </c>
       <c r="AO288">
         <v>9</v>
       </c>
@@ -35983,6 +35986,9 @@
       <c r="AL289">
         <v>0</v>
       </c>
+      <c r="AN289">
+        <v>0</v>
+      </c>
       <c r="AO289">
         <v>9</v>
       </c>
@@ -36018,6 +36024,9 @@
       <c r="AL290">
         <v>0</v>
       </c>
+      <c r="AN290">
+        <v>0</v>
+      </c>
       <c r="AO290">
         <v>5</v>
       </c>
@@ -36053,6 +36062,9 @@
       <c r="AL291">
         <v>0</v>
       </c>
+      <c r="AN291">
+        <v>0</v>
+      </c>
       <c r="AO291">
         <v>7</v>
       </c>
@@ -36088,6 +36100,9 @@
       <c r="AL292">
         <v>0</v>
       </c>
+      <c r="AN292">
+        <v>0</v>
+      </c>
       <c r="AO292">
         <v>3</v>
       </c>
@@ -36123,6 +36138,9 @@
       <c r="AL293">
         <v>0</v>
       </c>
+      <c r="AN293">
+        <v>0</v>
+      </c>
       <c r="AO293">
         <v>0</v>
       </c>
@@ -36156,6 +36174,9 @@
         <v>1</v>
       </c>
       <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
         <v>0</v>
       </c>
       <c r="AO294">
